--- a/medicine/Mort/Suicide_de_Lucas/Suicide_de_Lucas.xlsx
+++ b/medicine/Mort/Suicide_de_Lucas/Suicide_de_Lucas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 7 janvier 2023, un adolescent de 13 ans, Lucas Vermard, né le 31 juillet 2009[1], se suicide à son domicile par pendaison. Ses parents dénoncent un harcèlement homophobe subi au collège. L'affaire suscite l'émotion nationale. Une enquête de police est ouverte[2],[3],[4],[5],[6],[7]. Début juin 2023, le tribunal de première instance d'Épinal reconnaît quatre adolescents, deux garçons et deux filles, coupables d'un harcèlement ayant entraîné une ITT [= incapacité temporaire totale] inférieure à huit jours et leur impose une mise à l’épreuve éducative à titre provisoire. Mais le 6 novembre 2023, la cour d'appel de Nancy les relaxe : elle avance l'absence d'effet démontré, sur la santé mentale de Lucas, des propos certes odieux tenus en septembre-octobre 2022, et de lien de causalité avec son suicide[8]. Le 13 novembre 2023, la famille de Lucas et le parquet général de Nancy se pourvoient en cassation contre cette décision[9].
-Le 10 décembre 2023, une enquête de Mediapart révèle que l'enquête administrative n'a pas eu lieu et que d'autres faits de harcèlement ont eu lieu[10]. Cette enquête est relancée par Nicole Belloubet en 2024[11].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 7 janvier 2023, un adolescent de 13 ans, Lucas Vermard, né le 31 juillet 2009, se suicide à son domicile par pendaison. Ses parents dénoncent un harcèlement homophobe subi au collège. L'affaire suscite l'émotion nationale. Une enquête de police est ouverte. Début juin 2023, le tribunal de première instance d'Épinal reconnaît quatre adolescents, deux garçons et deux filles, coupables d'un harcèlement ayant entraîné une ITT [= incapacité temporaire totale] inférieure à huit jours et leur impose une mise à l’épreuve éducative à titre provisoire. Mais le 6 novembre 2023, la cour d'appel de Nancy les relaxe : elle avance l'absence d'effet démontré, sur la santé mentale de Lucas, des propos certes odieux tenus en septembre-octobre 2022, et de lien de causalité avec son suicide. Le 13 novembre 2023, la famille de Lucas et le parquet général de Nancy se pourvoient en cassation contre cette décision.
+Le 10 décembre 2023, une enquête de Mediapart révèle que l'enquête administrative n'a pas eu lieu et que d'autres faits de harcèlement ont eu lieu. Cette enquête est relancée par Nicole Belloubet en 2024.
 </t>
         </is>
       </c>
